--- a/CP4P_Final_Assignment_Plan_v1.xlsx
+++ b/CP4P_Final_Assignment_Plan_v1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Peter\Documents\CPR101\Group Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henly\Documents\GitHub\2022-CPR101-NII-Group-01-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="321" documentId="8_{4A4178BA-E4D7-4BC8-8ACB-D3A2A005C2FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD10C8DE-C07B-4918-9DFD-C9D829CE4F30}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE63742-768F-48D0-B02A-748C92AB3FEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D8E31B3C-F149-45D6-99B7-2CDC65D256FF}"/>
+    <workbookView xWindow="-21697" yWindow="-3578" windowWidth="21795" windowHeight="13875" xr2:uid="{D8E31B3C-F149-45D6-99B7-2CDC65D256FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Working route" sheetId="1" r:id="rId1"/>
@@ -510,7 +510,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="98">
   <si>
     <t>Blackboard Group No
 01 Class NII</t>
@@ -963,6 +963,12 @@
   <si>
     <t>1 planned hour | N/A</t>
   </si>
+  <si>
+    <t>Planned for 3 hours [Actual 2.5 hours]</t>
+  </si>
+  <si>
+    <t>Planned for 3 hours[Actual 2.5 hours]</t>
+  </si>
 </sst>
 </file>
 
@@ -972,7 +978,7 @@
     <numFmt numFmtId="164" formatCode="ddd\ mmm\.d\ hh:mm"/>
     <numFmt numFmtId="165" formatCode="mmm\.d\ hh:mm"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2131,14 +2137,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A09554C1-9C7A-45C0-A202-F69F83E653CA}">
   <dimension ref="A1:Z9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="G9" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" customWidth="1"/>
     <col min="2" max="3" width="25.7109375" customWidth="1"/>
@@ -2164,7 +2170,7 @@
     <col min="26" max="26" width="12.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="62.25" customHeight="1">
+    <row r="1" spans="1:26" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -2204,7 +2210,7 @@
       <c r="Y1" s="32"/>
       <c r="Z1" s="32"/>
     </row>
-    <row r="2" spans="1:26" s="10" customFormat="1" ht="90">
+    <row r="2" spans="1:26" s="10" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
@@ -2284,7 +2290,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="30" hidden="1">
+    <row r="3" spans="1:26" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>13</v>
       </c>
@@ -2349,7 +2355,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="30">
+    <row r="4" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>20</v>
       </c>
@@ -2392,7 +2398,7 @@
       <c r="Y4" s="7"/>
       <c r="Z4" s="15"/>
     </row>
-    <row r="5" spans="1:26" s="3" customFormat="1" ht="75">
+    <row r="5" spans="1:26" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>24</v>
       </c>
@@ -2482,7 +2488,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:26" s="23" customFormat="1" ht="236.25" customHeight="1">
+    <row r="6" spans="1:26" s="23" customFormat="1" ht="236.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>34</v>
       </c>
@@ -2578,7 +2584,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:26" s="23" customFormat="1" ht="169.5" customHeight="1">
+    <row r="7" spans="1:26" s="23" customFormat="1" ht="169.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
         <v>51</v>
       </c>
@@ -2625,7 +2631,7 @@
         <v>61</v>
       </c>
       <c r="N7" s="24" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="O7" s="5" t="str">
         <f>TEXT(($E$3+O$3-1),"dddd
@@ -2634,7 +2640,7 @@
 Apr.9</v>
       </c>
       <c r="P7" s="24" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="Q7" s="24" t="s">
         <v>63</v>
@@ -2643,7 +2649,7 @@
         <v>61</v>
       </c>
       <c r="S7" s="24" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="T7" s="5" t="str">
         <f>TEXT(($E$3+T$3-1),"dddd
@@ -2652,7 +2658,7 @@
 Apr.10</v>
       </c>
       <c r="U7" s="24" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="V7" s="24" t="s">
         <v>64</v>
@@ -2674,7 +2680,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:26" s="23" customFormat="1" ht="259.5" customHeight="1">
+    <row r="8" spans="1:26" s="23" customFormat="1" ht="259.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>66</v>
       </c>
@@ -2770,7 +2776,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:26" s="23" customFormat="1" ht="407.25" customHeight="1">
+    <row r="9" spans="1:26" s="23" customFormat="1" ht="407.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
         <v>80</v>
       </c>
@@ -3127,6 +3133,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007DA71BB3427D8A4D8C6B1D9FC83B8523" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ff806a6af6c9da5df570eefd46bafc37">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="871f9c32-6190-4c20-b083-b734e08baf9d" xmlns:ns3="f9e5404a-8fb4-4d07-81e3-37a7278de386" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="91c5258a233d7e8320f07641405ff8a3" ns2:_="" ns3:_="">
     <xsd:import namespace="871f9c32-6190-4c20-b083-b734e08baf9d"/>
@@ -3343,29 +3364,38 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E09E9BE-9CED-4DC3-8F13-F6FDA651AA03}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A37522F-39F4-4439-AEEC-7D6E0C35C759}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76FEA26C-2233-4295-8BE1-B265CEAD26C7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76FEA26C-2233-4295-8BE1-B265CEAD26C7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A37522F-39F4-4439-AEEC-7D6E0C35C759}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E09E9BE-9CED-4DC3-8F13-F6FDA651AA03}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="871f9c32-6190-4c20-b083-b734e08baf9d"/>
+    <ds:schemaRef ds:uri="f9e5404a-8fb4-4d07-81e3-37a7278de386"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>